--- a/Siyeon1.xlsx
+++ b/Siyeon1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25915"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="2220" windowWidth="24580" windowHeight="23620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3980" yWindow="3340" windowWidth="24580" windowHeight="23620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -836,11 +835,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2142427560"/>
-        <c:axId val="2142431320"/>
+        <c:axId val="2137869416"/>
+        <c:axId val="2054583464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2142427560"/>
+        <c:axId val="2137869416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,12 +896,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142431320"/>
+        <c:crossAx val="2054583464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2142431320"/>
+        <c:axId val="2054583464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142427560"/>
+        <c:crossAx val="2137869416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1856,7 +1855,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1946,7 +1945,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
